--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_LSPMW_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.389597178439165</v>
+        <v>0.4761386265337256</v>
       </c>
       <c r="D2">
-        <v>0.6968838495208727</v>
+        <v>0.6386701084712101</v>
       </c>
       <c r="E2">
         <v>0.7959293601958185</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.2835523540214492</v>
+        <v>0.2636000925935691</v>
       </c>
       <c r="D3">
-        <v>0.7767884135251542</v>
+        <v>0.7945413848735541</v>
       </c>
       <c r="E3">
         <v>0.7959293601958185</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.2880254651401878</v>
+        <v>0.2890216310624869</v>
       </c>
       <c r="D4">
-        <v>0.7733627945763437</v>
+        <v>0.7752707940813921</v>
       </c>
       <c r="E4">
         <v>0.7959293601958185</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.6152435202788151</v>
+        <v>0.8130170337770406</v>
       </c>
       <c r="D5">
-        <v>0.5384772885770073</v>
+        <v>0.4249198429656413</v>
       </c>
       <c r="E5">
         <v>0.7959293601958185</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.1419202578763074</v>
+        <v>-0.1270425824062188</v>
       </c>
       <c r="D6">
-        <v>0.8871600193973375</v>
+        <v>0.9000607224754804</v>
       </c>
       <c r="E6">
         <v>0.7824900317303634</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.1324493712096438</v>
+        <v>-0.1445293758247178</v>
       </c>
       <c r="D7">
-        <v>0.8946447365126888</v>
+        <v>0.8863983175187313</v>
       </c>
       <c r="E7">
         <v>0.7824900317303634</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.1684644156286427</v>
+        <v>0.2090958313990981</v>
       </c>
       <c r="D8">
-        <v>0.8662382263950164</v>
+        <v>0.8362974275745216</v>
       </c>
       <c r="E8">
         <v>0.7824900317303634</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.02199630082948546</v>
+        <v>0.02176825797007874</v>
       </c>
       <c r="D9">
-        <v>0.9824535200111726</v>
+        <v>0.9828290465389999</v>
       </c>
       <c r="E9">
         <v>0.7870217783645761</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.3247723273028131</v>
+        <v>0.2452404788745877</v>
       </c>
       <c r="D10">
-        <v>0.7453938491479861</v>
+        <v>0.8085434160545089</v>
       </c>
       <c r="E10">
         <v>0.7870217783645761</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.2823929055096603</v>
+        <v>0.2795455790027953</v>
       </c>
       <c r="D11">
-        <v>0.7776770602777496</v>
+        <v>0.7824374935313334</v>
       </c>
       <c r="E11">
         <v>0.7864235587442203</v>
